--- a/Fondo_Concursable.xlsx
+++ b/Fondo_Concursable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF02AF1-CD25-4A30-A2B3-2AFA5E7286E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC24D55E-63CE-47AB-B01D-E067218E0477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3480" yWindow="3180" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FONDO 8% P.T." sheetId="7" r:id="rId1"/>
@@ -4911,8 +4911,8 @@
   </sheetPr>
   <dimension ref="A1:N352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="G196" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="L206" sqref="L206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
